--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jess9\Documents\Co-opDocuments\UHN\JupyterNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F1218-19BA-4EC4-B5B2-277B54C761DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D783B2C-3473-4089-B53E-A78491A03694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4784587D-BF86-483F-A4DD-B2F93D88FED1}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>ABC-01-01</t>
   </si>
   <si>
-    <t>2022 JUNE</t>
-  </si>
-  <si>
     <t>2023 FEB 01</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>IRINOTECAN,IRINOTECAN,BEVACIZUMAB,OXALIPLATIN</t>
+  </si>
+  <si>
+    <t>2022 JUNE 22</t>
   </si>
 </sst>
 </file>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF01E2-D361-4B1D-99CD-32A67D20A3F6}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,7 +1072,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -1102,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R2" t="s">
         <v>103</v>
@@ -1120,7 +1120,7 @@
         <v>104</v>
       </c>
       <c r="T2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U2" t="s">
         <v>105</v>
@@ -1129,241 +1129,241 @@
         <v>106</v>
       </c>
       <c r="W2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X2">
         <v>4.8</v>
       </c>
       <c r="Y2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2">
+        <v>0.11</v>
+      </c>
+      <c r="AA2">
+        <v>0.11</v>
+      </c>
+      <c r="AB2" t="s">
         <v>112</v>
       </c>
-      <c r="Z2">
-        <v>0.11</v>
-      </c>
-      <c r="AA2">
-        <v>0.11</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2">
+        <v>0.11</v>
+      </c>
+      <c r="AD2">
+        <v>0.11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2">
+        <v>0.11</v>
+      </c>
+      <c r="AG2">
+        <v>0.11</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI2">
+        <v>0.11</v>
+      </c>
+      <c r="AJ2">
+        <v>0.11</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2">
+        <v>0.11</v>
+      </c>
+      <c r="AM2">
+        <v>0.11</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO2">
+        <v>0.11</v>
+      </c>
+      <c r="AP2">
+        <v>0.11</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR2">
+        <v>0.11</v>
+      </c>
+      <c r="AS2">
+        <v>0.11</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU2">
+        <v>0.11</v>
+      </c>
+      <c r="AV2">
+        <v>0.11</v>
+      </c>
+      <c r="AW2" t="s">
         <v>113</v>
       </c>
-      <c r="AC2">
-        <v>0.11</v>
-      </c>
-      <c r="AD2">
-        <v>0.11</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AX2">
+        <v>0.11</v>
+      </c>
+      <c r="AY2">
+        <v>0.11</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>113</v>
       </c>
-      <c r="AF2">
-        <v>0.11</v>
-      </c>
-      <c r="AG2">
-        <v>0.11</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="BA2">
+        <v>0.11</v>
+      </c>
+      <c r="BB2">
+        <v>0.11</v>
+      </c>
+      <c r="BC2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2">
-        <v>0.11</v>
-      </c>
-      <c r="AJ2">
-        <v>0.11</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="BD2">
+        <v>0.11</v>
+      </c>
+      <c r="BE2">
+        <v>0.11</v>
+      </c>
+      <c r="BF2" t="s">
         <v>113</v>
       </c>
-      <c r="AL2">
-        <v>0.11</v>
-      </c>
-      <c r="AM2">
-        <v>0.11</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="BG2">
+        <v>0.11</v>
+      </c>
+      <c r="BH2">
+        <v>0.11</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ2">
+        <v>0.11</v>
+      </c>
+      <c r="BK2">
+        <v>0.11</v>
+      </c>
+      <c r="BL2" t="s">
         <v>113</v>
       </c>
-      <c r="AO2">
-        <v>0.11</v>
-      </c>
-      <c r="AP2">
-        <v>0.11</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="BM2">
+        <v>0.11</v>
+      </c>
+      <c r="BN2">
+        <v>0.11</v>
+      </c>
+      <c r="BO2" t="s">
         <v>113</v>
       </c>
-      <c r="AR2">
-        <v>0.11</v>
-      </c>
-      <c r="AS2">
-        <v>0.11</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="BP2">
+        <v>0.11</v>
+      </c>
+      <c r="BQ2">
+        <v>0.11</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS2">
+        <v>0.11</v>
+      </c>
+      <c r="BT2">
+        <v>0.11</v>
+      </c>
+      <c r="BU2" t="s">
         <v>113</v>
       </c>
-      <c r="AU2">
-        <v>0.11</v>
-      </c>
-      <c r="AV2">
-        <v>0.11</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BV2">
+        <v>0.11</v>
+      </c>
+      <c r="BW2">
+        <v>0.11</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY2">
+        <v>0.11</v>
+      </c>
+      <c r="BZ2">
+        <v>0.11</v>
+      </c>
+      <c r="CA2" t="s">
         <v>114</v>
       </c>
-      <c r="AX2">
-        <v>0.11</v>
-      </c>
-      <c r="AY2">
-        <v>0.11</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA2">
-        <v>0.11</v>
-      </c>
-      <c r="BB2">
-        <v>0.11</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2">
-        <v>0.11</v>
-      </c>
-      <c r="BE2">
-        <v>0.11</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG2">
-        <v>0.11</v>
-      </c>
-      <c r="BH2">
-        <v>0.11</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="CB2">
+        <v>0.11</v>
+      </c>
+      <c r="CC2">
+        <v>0.11</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE2">
+        <v>0.11</v>
+      </c>
+      <c r="CF2">
+        <v>0.11</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH2">
+        <v>0.11</v>
+      </c>
+      <c r="CI2">
+        <v>0.11</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK2">
+        <v>0.11</v>
+      </c>
+      <c r="CL2">
+        <v>0.11</v>
+      </c>
+      <c r="CM2" t="s">
         <v>115</v>
       </c>
-      <c r="BJ2">
-        <v>0.11</v>
-      </c>
-      <c r="BK2">
-        <v>0.11</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM2">
-        <v>0.11</v>
-      </c>
-      <c r="BN2">
-        <v>0.11</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP2">
-        <v>0.11</v>
-      </c>
-      <c r="BQ2">
-        <v>0.11</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS2">
-        <v>0.11</v>
-      </c>
-      <c r="BT2">
-        <v>0.11</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV2">
-        <v>0.11</v>
-      </c>
-      <c r="BW2">
-        <v>0.11</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY2">
-        <v>0.11</v>
-      </c>
-      <c r="BZ2">
-        <v>0.11</v>
-      </c>
-      <c r="CA2" t="s">
+      <c r="CN2">
+        <v>0.11</v>
+      </c>
+      <c r="CO2">
+        <v>0.11</v>
+      </c>
+      <c r="CP2" t="s">
         <v>115</v>
       </c>
-      <c r="CB2">
-        <v>0.11</v>
-      </c>
-      <c r="CC2">
-        <v>0.11</v>
-      </c>
-      <c r="CD2" t="s">
+      <c r="CQ2">
+        <v>0.11</v>
+      </c>
+      <c r="CR2">
+        <v>0.11</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CT2" t="s">
         <v>117</v>
       </c>
-      <c r="CE2">
-        <v>0.11</v>
-      </c>
-      <c r="CF2">
-        <v>0.11</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH2">
-        <v>0.11</v>
-      </c>
-      <c r="CI2">
-        <v>0.11</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK2">
-        <v>0.11</v>
-      </c>
-      <c r="CL2">
-        <v>0.11</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CN2">
-        <v>0.11</v>
-      </c>
-      <c r="CO2">
-        <v>0.11</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ2">
-        <v>0.11</v>
-      </c>
-      <c r="CR2">
-        <v>0.11</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CV2" t="s">
         <v>118</v>
       </c>
-      <c r="CU2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>119</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
